--- a/artfynd/A 29346-2023.xlsx
+++ b/artfynd/A 29346-2023.xlsx
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756151</v>
+        <v>111756142</v>
       </c>
       <c r="B8" t="n">
-        <v>95532</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,21 +1404,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>453609.4901279925</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R8" t="n">
-        <v>7074130.545069677</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756161</v>
+        <v>111756159</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1516,21 +1516,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>453723.2573215028</v>
+        <v>453621.4908246148</v>
       </c>
       <c r="R9" t="n">
-        <v>7074069.623294062</v>
+        <v>7073983.576241231</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756147</v>
+        <v>111756163</v>
       </c>
       <c r="B10" t="n">
-        <v>89425</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1628,21 +1628,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>453989.3915585176</v>
+        <v>453955.6479769219</v>
       </c>
       <c r="R10" t="n">
-        <v>7073710.21875874</v>
+        <v>7073945.9492877</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756143</v>
+        <v>111756172</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>85715</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1736,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>510</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>453950.9091414157</v>
+        <v>453938.5789576455</v>
       </c>
       <c r="R11" t="n">
-        <v>7073591.829928016</v>
+        <v>7073959.46382203</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756165</v>
+        <v>111756143</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1848,25 +1848,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>453984.2379404157</v>
+        <v>453950.9091414157</v>
       </c>
       <c r="R12" t="n">
-        <v>7073751.417626478</v>
+        <v>7073591.829928016</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756157</v>
+        <v>111756140</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1964,21 +1964,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>453981.5111392652</v>
+        <v>453820.6239011836</v>
       </c>
       <c r="R13" t="n">
-        <v>7073807.172376178</v>
+        <v>7074037.242731699</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756164</v>
+        <v>111756169</v>
       </c>
       <c r="B14" t="n">
         <v>77515</v>
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>453971.0747186596</v>
+        <v>453910.2023238647</v>
       </c>
       <c r="R14" t="n">
-        <v>7073820.148138274</v>
+        <v>7073654.334338664</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2172,10 +2172,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756172</v>
+        <v>111756139</v>
       </c>
       <c r="B15" t="n">
-        <v>85715</v>
+        <v>89405</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2188,21 +2188,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>453938.5789576455</v>
+        <v>453692.6056797595</v>
       </c>
       <c r="R15" t="n">
-        <v>7073959.46382203</v>
+        <v>7074032.491935454</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756158</v>
+        <v>111756170</v>
       </c>
       <c r="B16" t="n">
-        <v>89423</v>
+        <v>96265</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2296,25 +2296,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>219790</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454002.8592168373</v>
+        <v>453738.5427278728</v>
       </c>
       <c r="R16" t="n">
-        <v>7073783.424762985</v>
+        <v>7073724.066700204</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756153</v>
+        <v>111756147</v>
       </c>
       <c r="B17" t="n">
-        <v>96674</v>
+        <v>89425</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2408,25 +2408,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>219880</v>
+        <v>5442</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>453707.5163784204</v>
+        <v>453989.3915585176</v>
       </c>
       <c r="R17" t="n">
-        <v>7073721.869806641</v>
+        <v>7073710.21875874</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756140</v>
+        <v>111756155</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2524,21 +2524,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>453820.6239011836</v>
+        <v>453863.4009631127</v>
       </c>
       <c r="R18" t="n">
-        <v>7074037.242731699</v>
+        <v>7073965.428905412</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756156</v>
+        <v>111756160</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,21 +2636,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>453978.4965374623</v>
+        <v>453815.5156181521</v>
       </c>
       <c r="R19" t="n">
-        <v>7073812.964766338</v>
+        <v>7073870.182023689</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756142</v>
+        <v>111756171</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>88899</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2744,25 +2744,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454002.5104495964</v>
+        <v>453750.6060291855</v>
       </c>
       <c r="R20" t="n">
-        <v>7073638.391199326</v>
+        <v>7073942.323881648</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756155</v>
+        <v>111756157</v>
       </c>
       <c r="B21" t="n">
         <v>89423</v>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>453863.4009631127</v>
+        <v>453981.5111392652</v>
       </c>
       <c r="R21" t="n">
-        <v>7073965.428905412</v>
+        <v>7073807.172376178</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756141</v>
+        <v>111756154</v>
       </c>
       <c r="B22" t="n">
-        <v>89405</v>
+        <v>96674</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2968,25 +2968,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>219880</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>453610.1793069927</v>
+        <v>453614.9183513908</v>
       </c>
       <c r="R22" t="n">
-        <v>7074087.205471905</v>
+        <v>7074108.35826167</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756170</v>
+        <v>111756161</v>
       </c>
       <c r="B23" t="n">
-        <v>96265</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3080,25 +3080,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>453738.5427278728</v>
+        <v>453723.2573215028</v>
       </c>
       <c r="R23" t="n">
-        <v>7073724.066700204</v>
+        <v>7074069.623294062</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756166</v>
+        <v>111756167</v>
       </c>
       <c r="B24" t="n">
         <v>77515</v>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>453981.6720900657</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R24" t="n">
-        <v>7073697.065866594</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756148</v>
+        <v>111756156</v>
       </c>
       <c r="B25" t="n">
-        <v>96266</v>
+        <v>89423</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3304,25 +3304,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>223591</v>
+        <v>5432</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>453747.0542679164</v>
+        <v>453978.4965374623</v>
       </c>
       <c r="R25" t="n">
-        <v>7073851.289854143</v>
+        <v>7073812.964766338</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756150</v>
+        <v>111756151</v>
       </c>
       <c r="B26" t="n">
         <v>95532</v>
@@ -3444,10 +3444,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>453976.2702886119</v>
+        <v>453609.4901279925</v>
       </c>
       <c r="R26" t="n">
-        <v>7073812.112971266</v>
+        <v>7074130.545069677</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756167</v>
+        <v>111756166</v>
       </c>
       <c r="B27" t="n">
         <v>77515</v>
@@ -3556,10 +3556,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>454002.5104495964</v>
+        <v>453981.6720900657</v>
       </c>
       <c r="R27" t="n">
-        <v>7073638.391199326</v>
+        <v>7073697.065866594</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3628,10 +3628,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756159</v>
+        <v>111756153</v>
       </c>
       <c r="B28" t="n">
-        <v>89423</v>
+        <v>96674</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3640,25 +3640,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>219880</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>453621.4908246148</v>
+        <v>453707.5163784204</v>
       </c>
       <c r="R28" t="n">
-        <v>7073983.576241231</v>
+        <v>7073721.869806641</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756160</v>
+        <v>111756162</v>
       </c>
       <c r="B29" t="n">
         <v>77515</v>
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>453815.5156181521</v>
+        <v>453922.6243923472</v>
       </c>
       <c r="R29" t="n">
-        <v>7073870.182023689</v>
+        <v>7073958.370937477</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756139</v>
+        <v>111756165</v>
       </c>
       <c r="B30" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3868,21 +3868,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>453692.6056797595</v>
+        <v>453984.2379404157</v>
       </c>
       <c r="R30" t="n">
-        <v>7074032.491935454</v>
+        <v>7073751.417626478</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756168</v>
+        <v>111756158</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3980,21 +3980,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4004,10 +4004,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>453958.9423245317</v>
+        <v>454002.8592168373</v>
       </c>
       <c r="R31" t="n">
-        <v>7073596.134472342</v>
+        <v>7073783.424762985</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4076,10 +4076,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756171</v>
+        <v>111756164</v>
       </c>
       <c r="B32" t="n">
-        <v>88899</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4092,21 +4092,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3286</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4116,10 +4116,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>453750.6060291855</v>
+        <v>453971.0747186596</v>
       </c>
       <c r="R32" t="n">
-        <v>7073942.323881648</v>
+        <v>7073820.148138274</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756162</v>
+        <v>111756150</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>95532</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4200,25 +4200,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>453922.6243923472</v>
+        <v>453976.2702886119</v>
       </c>
       <c r="R33" t="n">
-        <v>7073958.370937477</v>
+        <v>7073812.112971266</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111756163</v>
+        <v>111756148</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>96266</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4312,25 +4312,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>223591</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>453955.6479769219</v>
+        <v>453747.0542679164</v>
       </c>
       <c r="R34" t="n">
-        <v>7073945.9492877</v>
+        <v>7073851.289854143</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111756154</v>
+        <v>111756141</v>
       </c>
       <c r="B35" t="n">
-        <v>96674</v>
+        <v>89405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4424,25 +4424,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>219880</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4452,10 +4452,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>453614.9183513908</v>
+        <v>453610.1793069927</v>
       </c>
       <c r="R35" t="n">
-        <v>7074108.35826167</v>
+        <v>7074087.205471905</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111756169</v>
+        <v>111756168</v>
       </c>
       <c r="B36" t="n">
         <v>77515</v>
@@ -4564,10 +4564,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>453910.2023238647</v>
+        <v>453958.9423245317</v>
       </c>
       <c r="R36" t="n">
-        <v>7073654.334338664</v>
+        <v>7073596.134472342</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>

--- a/artfynd/A 29346-2023.xlsx
+++ b/artfynd/A 29346-2023.xlsx
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756142</v>
+        <v>111756139</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,25 +1400,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454002.5104495964</v>
+        <v>453692.6056797595</v>
       </c>
       <c r="R8" t="n">
-        <v>7073638.391199326</v>
+        <v>7074032.491935454</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756163</v>
+        <v>111756140</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1628,21 +1628,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>453955.6479769219</v>
+        <v>453820.6239011836</v>
       </c>
       <c r="R10" t="n">
-        <v>7073945.9492877</v>
+        <v>7074037.242731699</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756143</v>
+        <v>111756166</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1848,25 +1848,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>453950.9091414157</v>
+        <v>453981.6720900657</v>
       </c>
       <c r="R12" t="n">
-        <v>7073591.829928016</v>
+        <v>7073697.065866594</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756140</v>
+        <v>111756164</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1964,21 +1964,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>453820.6239011836</v>
+        <v>453971.0747186596</v>
       </c>
       <c r="R13" t="n">
-        <v>7074037.242731699</v>
+        <v>7073820.148138274</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756169</v>
+        <v>111756143</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2072,25 +2072,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>453910.2023238647</v>
+        <v>453950.9091414157</v>
       </c>
       <c r="R14" t="n">
-        <v>7073654.334338664</v>
+        <v>7073591.829928016</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2172,10 +2172,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756139</v>
+        <v>111756168</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2188,21 +2188,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>453692.6056797595</v>
+        <v>453958.9423245317</v>
       </c>
       <c r="R15" t="n">
-        <v>7074032.491935454</v>
+        <v>7073596.134472342</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756170</v>
+        <v>111756171</v>
       </c>
       <c r="B16" t="n">
-        <v>96265</v>
+        <v>88899</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2296,25 +2296,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>219790</v>
+        <v>3286</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>453738.5427278728</v>
+        <v>453750.6060291855</v>
       </c>
       <c r="R16" t="n">
-        <v>7073724.066700204</v>
+        <v>7073942.323881648</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756147</v>
+        <v>111756156</v>
       </c>
       <c r="B17" t="n">
-        <v>89425</v>
+        <v>89423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2412,21 +2412,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5442</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>453989.3915585176</v>
+        <v>453978.4965374623</v>
       </c>
       <c r="R17" t="n">
-        <v>7073710.21875874</v>
+        <v>7073812.964766338</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756155</v>
+        <v>111756170</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>96265</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2520,25 +2520,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>219790</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>453863.4009631127</v>
+        <v>453738.5427278728</v>
       </c>
       <c r="R18" t="n">
-        <v>7073965.428905412</v>
+        <v>7073724.066700204</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756160</v>
+        <v>111756155</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,21 +2636,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>453815.5156181521</v>
+        <v>453863.4009631127</v>
       </c>
       <c r="R19" t="n">
-        <v>7073870.182023689</v>
+        <v>7073965.428905412</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756171</v>
+        <v>111756162</v>
       </c>
       <c r="B20" t="n">
-        <v>88899</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2748,21 +2748,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3286</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>453750.6060291855</v>
+        <v>453922.6243923472</v>
       </c>
       <c r="R20" t="n">
-        <v>7073942.323881648</v>
+        <v>7073958.370937477</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756157</v>
+        <v>111756148</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>96266</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2856,25 +2856,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>223591</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>453981.5111392652</v>
+        <v>453747.0542679164</v>
       </c>
       <c r="R21" t="n">
-        <v>7073807.172376178</v>
+        <v>7073851.289854143</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756154</v>
+        <v>111756147</v>
       </c>
       <c r="B22" t="n">
-        <v>96674</v>
+        <v>89425</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2968,25 +2968,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219880</v>
+        <v>5442</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>453614.9183513908</v>
+        <v>453989.3915585176</v>
       </c>
       <c r="R22" t="n">
-        <v>7074108.35826167</v>
+        <v>7073710.21875874</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756161</v>
+        <v>111756153</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>96674</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3080,25 +3080,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>219880</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>453723.2573215028</v>
+        <v>453707.5163784204</v>
       </c>
       <c r="R23" t="n">
-        <v>7074069.623294062</v>
+        <v>7073721.869806641</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756156</v>
+        <v>111756151</v>
       </c>
       <c r="B25" t="n">
-        <v>89423</v>
+        <v>95532</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3304,25 +3304,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>221945</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>453978.4965374623</v>
+        <v>453609.4901279925</v>
       </c>
       <c r="R25" t="n">
-        <v>7073812.964766338</v>
+        <v>7074130.545069677</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756151</v>
+        <v>111756157</v>
       </c>
       <c r="B26" t="n">
-        <v>95532</v>
+        <v>89423</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3416,25 +3416,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221945</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3444,10 +3444,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>453609.4901279925</v>
+        <v>453981.5111392652</v>
       </c>
       <c r="R26" t="n">
-        <v>7074130.545069677</v>
+        <v>7073807.172376178</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756166</v>
+        <v>111756165</v>
       </c>
       <c r="B27" t="n">
         <v>77515</v>
@@ -3556,10 +3556,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>453981.6720900657</v>
+        <v>453984.2379404157</v>
       </c>
       <c r="R27" t="n">
-        <v>7073697.065866594</v>
+        <v>7073751.417626478</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3628,10 +3628,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756153</v>
+        <v>111756150</v>
       </c>
       <c r="B28" t="n">
-        <v>96674</v>
+        <v>95532</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3644,21 +3644,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>219880</v>
+        <v>221945</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>453707.5163784204</v>
+        <v>453976.2702886119</v>
       </c>
       <c r="R28" t="n">
-        <v>7073721.869806641</v>
+        <v>7073812.112971266</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756162</v>
+        <v>111756154</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>96674</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3752,25 +3752,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>219880</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>453922.6243923472</v>
+        <v>453614.9183513908</v>
       </c>
       <c r="R29" t="n">
-        <v>7073958.370937477</v>
+        <v>7074108.35826167</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756165</v>
+        <v>111756142</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3864,25 +3864,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>453984.2379404157</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R30" t="n">
-        <v>7073751.417626478</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756158</v>
+        <v>111756160</v>
       </c>
       <c r="B31" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3980,21 +3980,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4004,10 +4004,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454002.8592168373</v>
+        <v>453815.5156181521</v>
       </c>
       <c r="R31" t="n">
-        <v>7073783.424762985</v>
+        <v>7073870.182023689</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756164</v>
+        <v>111756163</v>
       </c>
       <c r="B32" t="n">
         <v>77515</v>
@@ -4116,10 +4116,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>453971.0747186596</v>
+        <v>453955.6479769219</v>
       </c>
       <c r="R32" t="n">
-        <v>7073820.148138274</v>
+        <v>7073945.9492877</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756150</v>
+        <v>111756141</v>
       </c>
       <c r="B33" t="n">
-        <v>95532</v>
+        <v>89405</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4200,25 +4200,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>221945</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>453976.2702886119</v>
+        <v>453610.1793069927</v>
       </c>
       <c r="R33" t="n">
-        <v>7073812.112971266</v>
+        <v>7074087.205471905</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111756148</v>
+        <v>111756169</v>
       </c>
       <c r="B34" t="n">
-        <v>96266</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4312,25 +4312,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>223591</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>453747.0542679164</v>
+        <v>453910.2023238647</v>
       </c>
       <c r="R34" t="n">
-        <v>7073851.289854143</v>
+        <v>7073654.334338664</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111756141</v>
+        <v>111756161</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4428,21 +4428,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4452,10 +4452,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>453610.1793069927</v>
+        <v>453723.2573215028</v>
       </c>
       <c r="R35" t="n">
-        <v>7074087.205471905</v>
+        <v>7074069.623294062</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4524,10 +4524,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111756168</v>
+        <v>111756158</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4540,21 +4540,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4564,10 +4564,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>453958.9423245317</v>
+        <v>454002.8592168373</v>
       </c>
       <c r="R36" t="n">
-        <v>7073596.134472342</v>
+        <v>7073783.424762985</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>

--- a/artfynd/A 29346-2023.xlsx
+++ b/artfynd/A 29346-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY36"/>
+  <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756139</v>
+        <v>111756151</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>95532</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,25 +1400,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>221945</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>453692.6056797595</v>
+        <v>453609.4901279925</v>
       </c>
       <c r="R8" t="n">
-        <v>7074032.491935454</v>
+        <v>7074130.545069677</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756159</v>
+        <v>111756150</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>95532</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,25 +1512,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>221945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>453621.4908246148</v>
+        <v>453976.2702886119</v>
       </c>
       <c r="R9" t="n">
-        <v>7073983.576241231</v>
+        <v>7073812.112971266</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756140</v>
+        <v>111756153</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>96674</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,25 +1624,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>219880</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>453820.6239011836</v>
+        <v>453707.5163784204</v>
       </c>
       <c r="R10" t="n">
-        <v>7074037.242731699</v>
+        <v>7073721.869806641</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756172</v>
+        <v>111756159</v>
       </c>
       <c r="B11" t="n">
-        <v>85715</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,21 +1740,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>453938.5789576455</v>
+        <v>453621.4908246148</v>
       </c>
       <c r="R11" t="n">
-        <v>7073959.46382203</v>
+        <v>7073983.576241231</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756166</v>
+        <v>111756147</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>89425</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,21 +1852,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>453981.6720900657</v>
+        <v>453989.3915585176</v>
       </c>
       <c r="R12" t="n">
-        <v>7073697.065866594</v>
+        <v>7073710.21875874</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756164</v>
+        <v>111756170</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>96265</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1960,25 +1960,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>453971.0747186596</v>
+        <v>453738.5427278728</v>
       </c>
       <c r="R13" t="n">
-        <v>7073820.148138274</v>
+        <v>7073724.066700204</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756143</v>
+        <v>111756158</v>
       </c>
       <c r="B14" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2072,25 +2072,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>453950.9091414157</v>
+        <v>454002.8592168373</v>
       </c>
       <c r="R14" t="n">
-        <v>7073591.829928016</v>
+        <v>7073783.424762985</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756171</v>
+        <v>111756139</v>
       </c>
       <c r="B16" t="n">
-        <v>88899</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2300,21 +2300,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3286</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>453750.6060291855</v>
+        <v>453692.6056797595</v>
       </c>
       <c r="R16" t="n">
-        <v>7073942.323881648</v>
+        <v>7074032.491935454</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756156</v>
+        <v>111756154</v>
       </c>
       <c r="B17" t="n">
-        <v>89423</v>
+        <v>96674</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2408,25 +2408,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>219880</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>453978.4965374623</v>
+        <v>453614.9183513908</v>
       </c>
       <c r="R17" t="n">
-        <v>7073812.964766338</v>
+        <v>7074108.35826167</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756170</v>
+        <v>111756155</v>
       </c>
       <c r="B18" t="n">
-        <v>96265</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2520,25 +2520,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>219790</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>453738.5427278728</v>
+        <v>453863.4009631127</v>
       </c>
       <c r="R18" t="n">
-        <v>7073724.066700204</v>
+        <v>7073965.428905412</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756155</v>
+        <v>111756166</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,21 +2636,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>453863.4009631127</v>
+        <v>453981.6720900657</v>
       </c>
       <c r="R19" t="n">
-        <v>7073965.428905412</v>
+        <v>7073697.065866594</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756162</v>
+        <v>111756160</v>
       </c>
       <c r="B20" t="n">
         <v>77515</v>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>453922.6243923472</v>
+        <v>453815.5156181521</v>
       </c>
       <c r="R20" t="n">
-        <v>7073958.370937477</v>
+        <v>7073870.182023689</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756148</v>
+        <v>111756142</v>
       </c>
       <c r="B21" t="n">
-        <v>96266</v>
+        <v>90087</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2860,21 +2860,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>223591</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>453747.0542679164</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R21" t="n">
-        <v>7073851.289854143</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756147</v>
+        <v>111756141</v>
       </c>
       <c r="B22" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2972,21 +2972,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>453989.3915585176</v>
+        <v>453610.1793069927</v>
       </c>
       <c r="R22" t="n">
-        <v>7073710.21875874</v>
+        <v>7074087.205471905</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756153</v>
+        <v>111756167</v>
       </c>
       <c r="B23" t="n">
-        <v>96674</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3080,25 +3080,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>219880</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>453707.5163784204</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R23" t="n">
-        <v>7073721.869806641</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756167</v>
+        <v>111756172</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>85715</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3196,21 +3196,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>454002.5104495964</v>
+        <v>453938.5789576455</v>
       </c>
       <c r="R24" t="n">
-        <v>7073638.391199326</v>
+        <v>7073959.46382203</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756151</v>
+        <v>111756140</v>
       </c>
       <c r="B25" t="n">
-        <v>95532</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3304,25 +3304,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221945</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>453609.4901279925</v>
+        <v>453820.6239011836</v>
       </c>
       <c r="R25" t="n">
-        <v>7074130.545069677</v>
+        <v>7074037.242731699</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756157</v>
+        <v>111756169</v>
       </c>
       <c r="B26" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3420,21 +3420,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3444,10 +3444,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>453981.5111392652</v>
+        <v>453910.2023238647</v>
       </c>
       <c r="R26" t="n">
-        <v>7073807.172376178</v>
+        <v>7073654.334338664</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756165</v>
+        <v>111756161</v>
       </c>
       <c r="B27" t="n">
         <v>77515</v>
@@ -3556,10 +3556,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>453984.2379404157</v>
+        <v>453723.2573215028</v>
       </c>
       <c r="R27" t="n">
-        <v>7073751.417626478</v>
+        <v>7074069.623294062</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3628,10 +3628,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756150</v>
+        <v>111756164</v>
       </c>
       <c r="B28" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3640,25 +3640,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>453976.2702886119</v>
+        <v>453971.0747186596</v>
       </c>
       <c r="R28" t="n">
-        <v>7073812.112971266</v>
+        <v>7073820.148138274</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756154</v>
+        <v>111756163</v>
       </c>
       <c r="B29" t="n">
-        <v>96674</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3752,25 +3752,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>219880</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>453614.9183513908</v>
+        <v>453955.6479769219</v>
       </c>
       <c r="R29" t="n">
-        <v>7074108.35826167</v>
+        <v>7073945.9492877</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756142</v>
+        <v>111756156</v>
       </c>
       <c r="B30" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3864,25 +3864,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>454002.5104495964</v>
+        <v>453978.4965374623</v>
       </c>
       <c r="R30" t="n">
-        <v>7073638.391199326</v>
+        <v>7073812.964766338</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756160</v>
+        <v>111756162</v>
       </c>
       <c r="B31" t="n">
         <v>77515</v>
@@ -4004,10 +4004,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>453815.5156181521</v>
+        <v>453922.6243923472</v>
       </c>
       <c r="R31" t="n">
-        <v>7073870.182023689</v>
+        <v>7073958.370937477</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4076,10 +4076,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756163</v>
+        <v>111756143</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4088,25 +4088,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4116,10 +4116,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>453955.6479769219</v>
+        <v>453950.9091414157</v>
       </c>
       <c r="R32" t="n">
-        <v>7073945.9492877</v>
+        <v>7073591.829928016</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756141</v>
+        <v>111756165</v>
       </c>
       <c r="B33" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4204,21 +4204,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>453610.1793069927</v>
+        <v>453984.2379404157</v>
       </c>
       <c r="R33" t="n">
-        <v>7074087.205471905</v>
+        <v>7073751.417626478</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111756169</v>
+        <v>111756157</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4316,21 +4316,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>453910.2023238647</v>
+        <v>453981.5111392652</v>
       </c>
       <c r="R34" t="n">
-        <v>7073654.334338664</v>
+        <v>7073807.172376178</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111756161</v>
+        <v>111756148</v>
       </c>
       <c r="B35" t="n">
-        <v>77515</v>
+        <v>96266</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4424,25 +4424,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>223591</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4452,10 +4452,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>453723.2573215028</v>
+        <v>453747.0542679164</v>
       </c>
       <c r="R35" t="n">
-        <v>7074069.623294062</v>
+        <v>7073851.289854143</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4521,118 +4521,6 @@
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>111756158</v>
-      </c>
-      <c r="B36" t="n">
-        <v>89423</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>5432</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Granticka</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Porodaedalea chrysoloma</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Stor-bakvattnet S, Jmt</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>454002.8592168373</v>
-      </c>
-      <c r="R36" t="n">
-        <v>7073783.424762985</v>
-      </c>
-      <c r="S36" t="n">
-        <v>10</v>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Jämtland</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Krokom</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Jämtland</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Föllinge</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AD36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AW36" t="inlineStr">
-        <is>
-          <t>Benny Öwre</t>
-        </is>
-      </c>
-      <c r="AX36" t="inlineStr">
-        <is>
-          <t>Benny Öwre</t>
-        </is>
-      </c>
-      <c r="AY36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 29346-2023.xlsx
+++ b/artfynd/A 29346-2023.xlsx
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756151</v>
+        <v>111756141</v>
       </c>
       <c r="B8" t="n">
-        <v>95532</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,25 +1400,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>453609.4901279925</v>
+        <v>453610.1793069927</v>
       </c>
       <c r="R8" t="n">
-        <v>7074130.545069677</v>
+        <v>7074087.205471905</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756150</v>
+        <v>111756142</v>
       </c>
       <c r="B9" t="n">
-        <v>95532</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1516,21 +1516,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>453976.2702886119</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R9" t="n">
-        <v>7073812.112971266</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756153</v>
+        <v>111756143</v>
       </c>
       <c r="B10" t="n">
-        <v>96674</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1628,21 +1628,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219880</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>453707.5163784204</v>
+        <v>453950.9091414157</v>
       </c>
       <c r="R10" t="n">
-        <v>7073721.869806641</v>
+        <v>7073591.829928016</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756159</v>
+        <v>111756163</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,21 +1740,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>453621.4908246148</v>
+        <v>453955.6479769219</v>
       </c>
       <c r="R11" t="n">
-        <v>7073983.576241231</v>
+        <v>7073945.9492877</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756147</v>
+        <v>111756159</v>
       </c>
       <c r="B12" t="n">
-        <v>89425</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,21 +1852,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5442</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>453989.3915585176</v>
+        <v>453621.4908246148</v>
       </c>
       <c r="R12" t="n">
-        <v>7073710.21875874</v>
+        <v>7073983.576241231</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756170</v>
+        <v>111756156</v>
       </c>
       <c r="B13" t="n">
-        <v>96265</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1960,25 +1960,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>219790</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>453738.5427278728</v>
+        <v>453978.4965374623</v>
       </c>
       <c r="R13" t="n">
-        <v>7073724.066700204</v>
+        <v>7073812.964766338</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756158</v>
+        <v>111756161</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2076,21 +2076,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454002.8592168373</v>
+        <v>453723.2573215028</v>
       </c>
       <c r="R14" t="n">
-        <v>7073783.424762985</v>
+        <v>7074069.623294062</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756168</v>
+        <v>111756160</v>
       </c>
       <c r="B15" t="n">
         <v>77515</v>
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>453958.9423245317</v>
+        <v>453815.5156181521</v>
       </c>
       <c r="R15" t="n">
-        <v>7073596.134472342</v>
+        <v>7073870.182023689</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756139</v>
+        <v>111756148</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>96266</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2296,25 +2296,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>223591</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>453692.6056797595</v>
+        <v>453747.0542679164</v>
       </c>
       <c r="R16" t="n">
-        <v>7074032.491935454</v>
+        <v>7073851.289854143</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756154</v>
+        <v>111756172</v>
       </c>
       <c r="B17" t="n">
-        <v>96674</v>
+        <v>85715</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2408,25 +2408,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>219880</v>
+        <v>510</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>453614.9183513908</v>
+        <v>453938.5789576455</v>
       </c>
       <c r="R17" t="n">
-        <v>7074108.35826167</v>
+        <v>7073959.46382203</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756155</v>
+        <v>111756164</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2524,21 +2524,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>453863.4009631127</v>
+        <v>453971.0747186596</v>
       </c>
       <c r="R18" t="n">
-        <v>7073965.428905412</v>
+        <v>7073820.148138274</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756166</v>
+        <v>111756155</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,21 +2636,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>453981.6720900657</v>
+        <v>453863.4009631127</v>
       </c>
       <c r="R19" t="n">
-        <v>7073697.065866594</v>
+        <v>7073965.428905412</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756160</v>
+        <v>111756162</v>
       </c>
       <c r="B20" t="n">
         <v>77515</v>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>453815.5156181521</v>
+        <v>453922.6243923472</v>
       </c>
       <c r="R20" t="n">
-        <v>7073870.182023689</v>
+        <v>7073958.370937477</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756142</v>
+        <v>111756168</v>
       </c>
       <c r="B21" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2856,25 +2856,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>454002.5104495964</v>
+        <v>453958.9423245317</v>
       </c>
       <c r="R21" t="n">
-        <v>7073638.391199326</v>
+        <v>7073596.134472342</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756141</v>
+        <v>111756147</v>
       </c>
       <c r="B22" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2972,21 +2972,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>453610.1793069927</v>
+        <v>453989.3915585176</v>
       </c>
       <c r="R22" t="n">
-        <v>7074087.205471905</v>
+        <v>7073710.21875874</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756167</v>
+        <v>111756150</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>95532</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3080,25 +3080,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>454002.5104495964</v>
+        <v>453976.2702886119</v>
       </c>
       <c r="R23" t="n">
-        <v>7073638.391199326</v>
+        <v>7073812.112971266</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756172</v>
+        <v>111756165</v>
       </c>
       <c r="B24" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3196,21 +3196,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>453938.5789576455</v>
+        <v>453984.2379404157</v>
       </c>
       <c r="R24" t="n">
-        <v>7073959.46382203</v>
+        <v>7073751.417626478</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756140</v>
+        <v>111756166</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3308,21 +3308,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>453820.6239011836</v>
+        <v>453981.6720900657</v>
       </c>
       <c r="R25" t="n">
-        <v>7074037.242731699</v>
+        <v>7073697.065866594</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756169</v>
+        <v>111756170</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>96265</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3416,25 +3416,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3444,10 +3444,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>453910.2023238647</v>
+        <v>453738.5427278728</v>
       </c>
       <c r="R26" t="n">
-        <v>7073654.334338664</v>
+        <v>7073724.066700204</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756161</v>
+        <v>111756157</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3532,21 +3532,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3556,10 +3556,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>453723.2573215028</v>
+        <v>453981.5111392652</v>
       </c>
       <c r="R27" t="n">
-        <v>7074069.623294062</v>
+        <v>7073807.172376178</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756164</v>
+        <v>111756169</v>
       </c>
       <c r="B28" t="n">
         <v>77515</v>
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>453971.0747186596</v>
+        <v>453910.2023238647</v>
       </c>
       <c r="R28" t="n">
-        <v>7073820.148138274</v>
+        <v>7073654.334338664</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756163</v>
+        <v>111756140</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3756,21 +3756,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>453955.6479769219</v>
+        <v>453820.6239011836</v>
       </c>
       <c r="R29" t="n">
-        <v>7073945.9492877</v>
+        <v>7074037.242731699</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756156</v>
+        <v>111756154</v>
       </c>
       <c r="B30" t="n">
-        <v>89423</v>
+        <v>96674</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3864,25 +3864,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>219880</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>453978.4965374623</v>
+        <v>453614.9183513908</v>
       </c>
       <c r="R30" t="n">
-        <v>7073812.964766338</v>
+        <v>7074108.35826167</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756162</v>
+        <v>111756158</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3980,21 +3980,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4004,10 +4004,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>453922.6243923472</v>
+        <v>454002.8592168373</v>
       </c>
       <c r="R31" t="n">
-        <v>7073958.370937477</v>
+        <v>7073783.424762985</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4076,10 +4076,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756143</v>
+        <v>111756151</v>
       </c>
       <c r="B32" t="n">
-        <v>90087</v>
+        <v>95532</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4092,21 +4092,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3298</v>
+        <v>221945</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4116,10 +4116,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>453950.9091414157</v>
+        <v>453609.4901279925</v>
       </c>
       <c r="R32" t="n">
-        <v>7073591.829928016</v>
+        <v>7074130.545069677</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756165</v>
+        <v>111756139</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4204,21 +4204,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>453984.2379404157</v>
+        <v>453692.6056797595</v>
       </c>
       <c r="R33" t="n">
-        <v>7073751.417626478</v>
+        <v>7074032.491935454</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111756157</v>
+        <v>111756153</v>
       </c>
       <c r="B34" t="n">
-        <v>89423</v>
+        <v>96674</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4312,25 +4312,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5432</v>
+        <v>219880</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>453981.5111392652</v>
+        <v>453707.5163784204</v>
       </c>
       <c r="R34" t="n">
-        <v>7073807.172376178</v>
+        <v>7073721.869806641</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111756148</v>
+        <v>111756167</v>
       </c>
       <c r="B35" t="n">
-        <v>96266</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4424,25 +4424,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>223591</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4452,10 +4452,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>453747.0542679164</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R35" t="n">
-        <v>7073851.289854143</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>

--- a/artfynd/A 29346-2023.xlsx
+++ b/artfynd/A 29346-2023.xlsx
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756141</v>
+        <v>111756165</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,21 +1404,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>453610.1793069927</v>
+        <v>453984.2379404157</v>
       </c>
       <c r="R8" t="n">
-        <v>7074087.205471905</v>
+        <v>7073751.417626478</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756142</v>
+        <v>111756167</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,25 +1512,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756143</v>
+        <v>111756160</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,25 +1624,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>453950.9091414157</v>
+        <v>453815.5156181521</v>
       </c>
       <c r="R10" t="n">
-        <v>7073591.829928016</v>
+        <v>7073870.182023689</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756163</v>
+        <v>111756159</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,21 +1740,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>453955.6479769219</v>
+        <v>453621.4908246148</v>
       </c>
       <c r="R11" t="n">
-        <v>7073945.9492877</v>
+        <v>7073983.576241231</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756159</v>
+        <v>111756143</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1848,25 +1848,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>453621.4908246148</v>
+        <v>453950.9091414157</v>
       </c>
       <c r="R12" t="n">
-        <v>7073983.576241231</v>
+        <v>7073591.829928016</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756156</v>
+        <v>111756172</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>85715</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1964,21 +1964,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>510</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>453978.4965374623</v>
+        <v>453938.5789576455</v>
       </c>
       <c r="R13" t="n">
-        <v>7073812.964766338</v>
+        <v>7073959.46382203</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756161</v>
+        <v>111756155</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2076,21 +2076,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>453723.2573215028</v>
+        <v>453863.4009631127</v>
       </c>
       <c r="R14" t="n">
-        <v>7074069.623294062</v>
+        <v>7073965.428905412</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2172,10 +2172,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756160</v>
+        <v>111756157</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2188,21 +2188,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>453815.5156181521</v>
+        <v>453981.5111392652</v>
       </c>
       <c r="R15" t="n">
-        <v>7073870.182023689</v>
+        <v>7073807.172376178</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756148</v>
+        <v>111756153</v>
       </c>
       <c r="B16" t="n">
-        <v>96266</v>
+        <v>96674</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2300,21 +2300,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>223591</v>
+        <v>219880</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>453747.0542679164</v>
+        <v>453707.5163784204</v>
       </c>
       <c r="R16" t="n">
-        <v>7073851.289854143</v>
+        <v>7073721.869806641</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756172</v>
+        <v>111756168</v>
       </c>
       <c r="B17" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2412,21 +2412,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>453938.5789576455</v>
+        <v>453958.9423245317</v>
       </c>
       <c r="R17" t="n">
-        <v>7073959.46382203</v>
+        <v>7073596.134472342</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756164</v>
+        <v>111756163</v>
       </c>
       <c r="B18" t="n">
         <v>77515</v>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>453971.0747186596</v>
+        <v>453955.6479769219</v>
       </c>
       <c r="R18" t="n">
-        <v>7073820.148138274</v>
+        <v>7073945.9492877</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756155</v>
+        <v>111756161</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,21 +2636,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>453863.4009631127</v>
+        <v>453723.2573215028</v>
       </c>
       <c r="R19" t="n">
-        <v>7073965.428905412</v>
+        <v>7074069.623294062</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756162</v>
+        <v>111756158</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2748,21 +2748,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>453922.6243923472</v>
+        <v>454002.8592168373</v>
       </c>
       <c r="R20" t="n">
-        <v>7073958.370937477</v>
+        <v>7073783.424762985</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756168</v>
+        <v>111756162</v>
       </c>
       <c r="B21" t="n">
         <v>77515</v>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>453958.9423245317</v>
+        <v>453922.6243923472</v>
       </c>
       <c r="R21" t="n">
-        <v>7073596.134472342</v>
+        <v>7073958.370937477</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756147</v>
+        <v>111756151</v>
       </c>
       <c r="B22" t="n">
-        <v>89425</v>
+        <v>95532</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2968,25 +2968,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5442</v>
+        <v>221945</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>453989.3915585176</v>
+        <v>453609.4901279925</v>
       </c>
       <c r="R22" t="n">
-        <v>7073710.21875874</v>
+        <v>7074130.545069677</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756150</v>
+        <v>111756169</v>
       </c>
       <c r="B23" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3080,25 +3080,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>453976.2702886119</v>
+        <v>453910.2023238647</v>
       </c>
       <c r="R23" t="n">
-        <v>7073812.112971266</v>
+        <v>7073654.334338664</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756165</v>
+        <v>111756140</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3196,21 +3196,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>453984.2379404157</v>
+        <v>453820.6239011836</v>
       </c>
       <c r="R24" t="n">
-        <v>7073751.417626478</v>
+        <v>7074037.242731699</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756166</v>
+        <v>111756142</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3304,25 +3304,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>453981.6720900657</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R25" t="n">
-        <v>7073697.065866594</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756170</v>
+        <v>111756150</v>
       </c>
       <c r="B26" t="n">
-        <v>96265</v>
+        <v>95532</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3420,21 +3420,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219790</v>
+        <v>221945</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3444,10 +3444,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>453738.5427278728</v>
+        <v>453976.2702886119</v>
       </c>
       <c r="R26" t="n">
-        <v>7073724.066700204</v>
+        <v>7073812.112971266</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756157</v>
+        <v>111756148</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>96266</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3528,25 +3528,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>223591</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3556,10 +3556,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>453981.5111392652</v>
+        <v>453747.0542679164</v>
       </c>
       <c r="R27" t="n">
-        <v>7073807.172376178</v>
+        <v>7073851.289854143</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756169</v>
+        <v>111756166</v>
       </c>
       <c r="B28" t="n">
         <v>77515</v>
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>453910.2023238647</v>
+        <v>453981.6720900657</v>
       </c>
       <c r="R28" t="n">
-        <v>7073654.334338664</v>
+        <v>7073697.065866594</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756140</v>
+        <v>111756156</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3756,21 +3756,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>453820.6239011836</v>
+        <v>453978.4965374623</v>
       </c>
       <c r="R29" t="n">
-        <v>7074037.242731699</v>
+        <v>7073812.964766338</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756154</v>
+        <v>111756139</v>
       </c>
       <c r="B30" t="n">
-        <v>96674</v>
+        <v>89405</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3864,25 +3864,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>219880</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>453614.9183513908</v>
+        <v>453692.6056797595</v>
       </c>
       <c r="R30" t="n">
-        <v>7074108.35826167</v>
+        <v>7074032.491935454</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756158</v>
+        <v>111756141</v>
       </c>
       <c r="B31" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3980,21 +3980,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4004,10 +4004,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454002.8592168373</v>
+        <v>453610.1793069927</v>
       </c>
       <c r="R31" t="n">
-        <v>7073783.424762985</v>
+        <v>7074087.205471905</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4076,10 +4076,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756151</v>
+        <v>111756147</v>
       </c>
       <c r="B32" t="n">
-        <v>95532</v>
+        <v>89425</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4088,25 +4088,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221945</v>
+        <v>5442</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4116,10 +4116,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>453609.4901279925</v>
+        <v>453989.3915585176</v>
       </c>
       <c r="R32" t="n">
-        <v>7074130.545069677</v>
+        <v>7073710.21875874</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756139</v>
+        <v>111756164</v>
       </c>
       <c r="B33" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4204,21 +4204,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>453692.6056797595</v>
+        <v>453971.0747186596</v>
       </c>
       <c r="R33" t="n">
-        <v>7074032.491935454</v>
+        <v>7073820.148138274</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111756153</v>
+        <v>111756154</v>
       </c>
       <c r="B34" t="n">
         <v>96674</v>
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>453707.5163784204</v>
+        <v>453614.9183513908</v>
       </c>
       <c r="R34" t="n">
-        <v>7073721.869806641</v>
+        <v>7074108.35826167</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111756167</v>
+        <v>111756170</v>
       </c>
       <c r="B35" t="n">
-        <v>77515</v>
+        <v>96265</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4424,25 +4424,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4452,10 +4452,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>454002.5104495964</v>
+        <v>453738.5427278728</v>
       </c>
       <c r="R35" t="n">
-        <v>7073638.391199326</v>
+        <v>7073724.066700204</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>

--- a/artfynd/A 29346-2023.xlsx
+++ b/artfynd/A 29346-2023.xlsx
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756165</v>
+        <v>111756148</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>96266</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,25 +1400,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>223591</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>453984.2379404157</v>
+        <v>453747.0542679164</v>
       </c>
       <c r="R8" t="n">
-        <v>7073751.417626478</v>
+        <v>7073851.289854143</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756167</v>
+        <v>111756151</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>95532</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,25 +1512,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454002.5104495964</v>
+        <v>453609.4901279925</v>
       </c>
       <c r="R9" t="n">
-        <v>7073638.391199326</v>
+        <v>7074130.545069677</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756160</v>
+        <v>111756163</v>
       </c>
       <c r="B10" t="n">
         <v>77515</v>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>453815.5156181521</v>
+        <v>453955.6479769219</v>
       </c>
       <c r="R10" t="n">
-        <v>7073870.182023689</v>
+        <v>7073945.9492877</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756159</v>
+        <v>111756158</v>
       </c>
       <c r="B11" t="n">
         <v>89423</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>453621.4908246148</v>
+        <v>454002.8592168373</v>
       </c>
       <c r="R11" t="n">
-        <v>7073983.576241231</v>
+        <v>7073783.424762985</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756143</v>
+        <v>111756142</v>
       </c>
       <c r="B12" t="n">
         <v>90087</v>
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>453950.9091414157</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R12" t="n">
-        <v>7073591.829928016</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756172</v>
+        <v>111756170</v>
       </c>
       <c r="B13" t="n">
-        <v>85715</v>
+        <v>96265</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1960,25 +1960,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>510</v>
+        <v>219790</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>453938.5789576455</v>
+        <v>453738.5427278728</v>
       </c>
       <c r="R13" t="n">
-        <v>7073959.46382203</v>
+        <v>7073724.066700204</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756155</v>
+        <v>111756153</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>96674</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2072,25 +2072,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>219880</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>453863.4009631127</v>
+        <v>453707.5163784204</v>
       </c>
       <c r="R14" t="n">
-        <v>7073965.428905412</v>
+        <v>7073721.869806641</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756157</v>
+        <v>111756156</v>
       </c>
       <c r="B15" t="n">
         <v>89423</v>
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>453981.5111392652</v>
+        <v>453978.4965374623</v>
       </c>
       <c r="R15" t="n">
-        <v>7073807.172376178</v>
+        <v>7073812.964766338</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756153</v>
+        <v>111756160</v>
       </c>
       <c r="B16" t="n">
-        <v>96674</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2296,25 +2296,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>219880</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>453707.5163784204</v>
+        <v>453815.5156181521</v>
       </c>
       <c r="R16" t="n">
-        <v>7073721.869806641</v>
+        <v>7073870.182023689</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756168</v>
+        <v>111756161</v>
       </c>
       <c r="B17" t="n">
         <v>77515</v>
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>453958.9423245317</v>
+        <v>453723.2573215028</v>
       </c>
       <c r="R17" t="n">
-        <v>7073596.134472342</v>
+        <v>7074069.623294062</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756163</v>
+        <v>111756141</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2524,21 +2524,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>453955.6479769219</v>
+        <v>453610.1793069927</v>
       </c>
       <c r="R18" t="n">
-        <v>7073945.9492877</v>
+        <v>7074087.205471905</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756161</v>
+        <v>111756166</v>
       </c>
       <c r="B19" t="n">
         <v>77515</v>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>453723.2573215028</v>
+        <v>453981.6720900657</v>
       </c>
       <c r="R19" t="n">
-        <v>7074069.623294062</v>
+        <v>7073697.065866594</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756158</v>
+        <v>111756139</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2748,21 +2748,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454002.8592168373</v>
+        <v>453692.6056797595</v>
       </c>
       <c r="R20" t="n">
-        <v>7073783.424762985</v>
+        <v>7074032.491935454</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756151</v>
+        <v>111756168</v>
       </c>
       <c r="B22" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2968,25 +2968,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>453609.4901279925</v>
+        <v>453958.9423245317</v>
       </c>
       <c r="R22" t="n">
-        <v>7074130.545069677</v>
+        <v>7073596.134472342</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756169</v>
+        <v>111756165</v>
       </c>
       <c r="B23" t="n">
         <v>77515</v>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>453910.2023238647</v>
+        <v>453984.2379404157</v>
       </c>
       <c r="R23" t="n">
-        <v>7073654.334338664</v>
+        <v>7073751.417626478</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756140</v>
+        <v>111756143</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>453820.6239011836</v>
+        <v>453950.9091414157</v>
       </c>
       <c r="R24" t="n">
-        <v>7074037.242731699</v>
+        <v>7073591.829928016</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756142</v>
+        <v>111756147</v>
       </c>
       <c r="B25" t="n">
-        <v>90087</v>
+        <v>89425</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3304,25 +3304,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3298</v>
+        <v>5442</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>454002.5104495964</v>
+        <v>453989.3915585176</v>
       </c>
       <c r="R25" t="n">
-        <v>7073638.391199326</v>
+        <v>7073710.21875874</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756150</v>
+        <v>111756154</v>
       </c>
       <c r="B26" t="n">
-        <v>95532</v>
+        <v>96674</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3420,21 +3420,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221945</v>
+        <v>219880</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3444,10 +3444,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>453976.2702886119</v>
+        <v>453614.9183513908</v>
       </c>
       <c r="R26" t="n">
-        <v>7073812.112971266</v>
+        <v>7074108.35826167</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756148</v>
+        <v>111756164</v>
       </c>
       <c r="B27" t="n">
-        <v>96266</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3528,25 +3528,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>223591</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3556,10 +3556,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>453747.0542679164</v>
+        <v>453971.0747186596</v>
       </c>
       <c r="R27" t="n">
-        <v>7073851.289854143</v>
+        <v>7073820.148138274</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3628,10 +3628,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756166</v>
+        <v>111756159</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3644,21 +3644,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>453981.6720900657</v>
+        <v>453621.4908246148</v>
       </c>
       <c r="R28" t="n">
-        <v>7073697.065866594</v>
+        <v>7073983.576241231</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756156</v>
+        <v>111756140</v>
       </c>
       <c r="B29" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3756,21 +3756,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>453978.4965374623</v>
+        <v>453820.6239011836</v>
       </c>
       <c r="R29" t="n">
-        <v>7073812.964766338</v>
+        <v>7074037.242731699</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756139</v>
+        <v>111756150</v>
       </c>
       <c r="B30" t="n">
-        <v>89405</v>
+        <v>95532</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3864,25 +3864,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>221945</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>453692.6056797595</v>
+        <v>453976.2702886119</v>
       </c>
       <c r="R30" t="n">
-        <v>7074032.491935454</v>
+        <v>7073812.112971266</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756141</v>
+        <v>111756172</v>
       </c>
       <c r="B31" t="n">
-        <v>89405</v>
+        <v>85715</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3980,21 +3980,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4004,10 +4004,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>453610.1793069927</v>
+        <v>453938.5789576455</v>
       </c>
       <c r="R31" t="n">
-        <v>7074087.205471905</v>
+        <v>7073959.46382203</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4076,10 +4076,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756147</v>
+        <v>111756169</v>
       </c>
       <c r="B32" t="n">
-        <v>89425</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4092,21 +4092,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4116,10 +4116,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>453989.3915585176</v>
+        <v>453910.2023238647</v>
       </c>
       <c r="R32" t="n">
-        <v>7073710.21875874</v>
+        <v>7073654.334338664</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756164</v>
+        <v>111756167</v>
       </c>
       <c r="B33" t="n">
         <v>77515</v>
@@ -4228,10 +4228,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>453971.0747186596</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R33" t="n">
-        <v>7073820.148138274</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111756154</v>
+        <v>111756155</v>
       </c>
       <c r="B34" t="n">
-        <v>96674</v>
+        <v>89423</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4312,25 +4312,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>219880</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>453614.9183513908</v>
+        <v>453863.4009631127</v>
       </c>
       <c r="R34" t="n">
-        <v>7074108.35826167</v>
+        <v>7073965.428905412</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111756170</v>
+        <v>111756157</v>
       </c>
       <c r="B35" t="n">
-        <v>96265</v>
+        <v>89423</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4424,25 +4424,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>219790</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4452,10 +4452,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>453738.5427278728</v>
+        <v>453981.5111392652</v>
       </c>
       <c r="R35" t="n">
-        <v>7073724.066700204</v>
+        <v>7073807.172376178</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>

--- a/artfynd/A 29346-2023.xlsx
+++ b/artfynd/A 29346-2023.xlsx
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756148</v>
+        <v>111756140</v>
       </c>
       <c r="B8" t="n">
-        <v>96266</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,25 +1400,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>223591</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>453747.0542679164</v>
+        <v>453820.6239011836</v>
       </c>
       <c r="R8" t="n">
-        <v>7073851.289854143</v>
+        <v>7074037.242731699</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756151</v>
+        <v>111756147</v>
       </c>
       <c r="B9" t="n">
-        <v>95532</v>
+        <v>89425</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,25 +1512,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>5442</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>453609.4901279925</v>
+        <v>453989.3915585176</v>
       </c>
       <c r="R9" t="n">
-        <v>7074130.545069677</v>
+        <v>7073710.21875874</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756163</v>
+        <v>111756148</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>96266</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,25 +1624,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>223591</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>453955.6479769219</v>
+        <v>453747.0542679164</v>
       </c>
       <c r="R10" t="n">
-        <v>7073945.9492877</v>
+        <v>7073851.289854143</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756158</v>
+        <v>111756167</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,21 +1740,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454002.8592168373</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R11" t="n">
-        <v>7073783.424762985</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756142</v>
+        <v>111756155</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1848,25 +1848,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454002.5104495964</v>
+        <v>453863.4009631127</v>
       </c>
       <c r="R12" t="n">
-        <v>7073638.391199326</v>
+        <v>7073965.428905412</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756170</v>
+        <v>111756168</v>
       </c>
       <c r="B13" t="n">
-        <v>96265</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1960,25 +1960,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>453738.5427278728</v>
+        <v>453958.9423245317</v>
       </c>
       <c r="R13" t="n">
-        <v>7073724.066700204</v>
+        <v>7073596.134472342</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756153</v>
+        <v>111756170</v>
       </c>
       <c r="B14" t="n">
-        <v>96674</v>
+        <v>96265</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2076,21 +2076,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219880</v>
+        <v>219790</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>453707.5163784204</v>
+        <v>453738.5427278728</v>
       </c>
       <c r="R14" t="n">
-        <v>7073721.869806641</v>
+        <v>7073724.066700204</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756160</v>
+        <v>111756154</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>96674</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2296,25 +2296,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>219880</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>453815.5156181521</v>
+        <v>453614.9183513908</v>
       </c>
       <c r="R16" t="n">
-        <v>7073870.182023689</v>
+        <v>7074108.35826167</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756161</v>
+        <v>111756163</v>
       </c>
       <c r="B17" t="n">
         <v>77515</v>
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>453723.2573215028</v>
+        <v>453955.6479769219</v>
       </c>
       <c r="R17" t="n">
-        <v>7074069.623294062</v>
+        <v>7073945.9492877</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756166</v>
+        <v>111756161</v>
       </c>
       <c r="B19" t="n">
         <v>77515</v>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>453981.6720900657</v>
+        <v>453723.2573215028</v>
       </c>
       <c r="R19" t="n">
-        <v>7073697.065866594</v>
+        <v>7074069.623294062</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756139</v>
+        <v>111756166</v>
       </c>
       <c r="B20" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2748,21 +2748,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>453692.6056797595</v>
+        <v>453981.6720900657</v>
       </c>
       <c r="R20" t="n">
-        <v>7074032.491935454</v>
+        <v>7073697.065866594</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756162</v>
+        <v>111756143</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2856,25 +2856,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>453922.6243923472</v>
+        <v>453950.9091414157</v>
       </c>
       <c r="R21" t="n">
-        <v>7073958.370937477</v>
+        <v>7073591.829928016</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756168</v>
+        <v>111756139</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2972,21 +2972,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>453958.9423245317</v>
+        <v>453692.6056797595</v>
       </c>
       <c r="R22" t="n">
-        <v>7073596.134472342</v>
+        <v>7074032.491935454</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756165</v>
+        <v>111756159</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3084,21 +3084,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>453984.2379404157</v>
+        <v>453621.4908246148</v>
       </c>
       <c r="R23" t="n">
-        <v>7073751.417626478</v>
+        <v>7073983.576241231</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756143</v>
+        <v>111756150</v>
       </c>
       <c r="B24" t="n">
-        <v>90087</v>
+        <v>95532</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3196,21 +3196,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3298</v>
+        <v>221945</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>453950.9091414157</v>
+        <v>453976.2702886119</v>
       </c>
       <c r="R24" t="n">
-        <v>7073591.829928016</v>
+        <v>7073812.112971266</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756147</v>
+        <v>111756172</v>
       </c>
       <c r="B25" t="n">
-        <v>89425</v>
+        <v>85715</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3308,21 +3308,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5442</v>
+        <v>510</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>453989.3915585176</v>
+        <v>453938.5789576455</v>
       </c>
       <c r="R25" t="n">
-        <v>7073710.21875874</v>
+        <v>7073959.46382203</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756154</v>
+        <v>111756164</v>
       </c>
       <c r="B26" t="n">
-        <v>96674</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3416,25 +3416,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219880</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3444,10 +3444,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>453614.9183513908</v>
+        <v>453971.0747186596</v>
       </c>
       <c r="R26" t="n">
-        <v>7074108.35826167</v>
+        <v>7073820.148138274</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756164</v>
+        <v>111756169</v>
       </c>
       <c r="B27" t="n">
         <v>77515</v>
@@ -3556,10 +3556,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>453971.0747186596</v>
+        <v>453910.2023238647</v>
       </c>
       <c r="R27" t="n">
-        <v>7073820.148138274</v>
+        <v>7073654.334338664</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3628,10 +3628,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756159</v>
+        <v>111756160</v>
       </c>
       <c r="B28" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3644,21 +3644,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>453621.4908246148</v>
+        <v>453815.5156181521</v>
       </c>
       <c r="R28" t="n">
-        <v>7073983.576241231</v>
+        <v>7073870.182023689</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756140</v>
+        <v>111756151</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>95532</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3752,25 +3752,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>221945</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>453820.6239011836</v>
+        <v>453609.4901279925</v>
       </c>
       <c r="R29" t="n">
-        <v>7074037.242731699</v>
+        <v>7074130.545069677</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756150</v>
+        <v>111756165</v>
       </c>
       <c r="B30" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3864,25 +3864,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>453976.2702886119</v>
+        <v>453984.2379404157</v>
       </c>
       <c r="R30" t="n">
-        <v>7073812.112971266</v>
+        <v>7073751.417626478</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756172</v>
+        <v>111756157</v>
       </c>
       <c r="B31" t="n">
-        <v>85715</v>
+        <v>89423</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3980,21 +3980,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4004,10 +4004,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>453938.5789576455</v>
+        <v>453981.5111392652</v>
       </c>
       <c r="R31" t="n">
-        <v>7073959.46382203</v>
+        <v>7073807.172376178</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4076,10 +4076,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756169</v>
+        <v>111756153</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>96674</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4088,25 +4088,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>219880</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4116,10 +4116,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>453910.2023238647</v>
+        <v>453707.5163784204</v>
       </c>
       <c r="R32" t="n">
-        <v>7073654.334338664</v>
+        <v>7073721.869806641</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756167</v>
+        <v>111756162</v>
       </c>
       <c r="B33" t="n">
         <v>77515</v>
@@ -4228,10 +4228,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>454002.5104495964</v>
+        <v>453922.6243923472</v>
       </c>
       <c r="R33" t="n">
-        <v>7073638.391199326</v>
+        <v>7073958.370937477</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111756155</v>
+        <v>111756158</v>
       </c>
       <c r="B34" t="n">
         <v>89423</v>
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>453863.4009631127</v>
+        <v>454002.8592168373</v>
       </c>
       <c r="R34" t="n">
-        <v>7073965.428905412</v>
+        <v>7073783.424762985</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111756157</v>
+        <v>111756142</v>
       </c>
       <c r="B35" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4424,25 +4424,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4452,10 +4452,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>453981.5111392652</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R35" t="n">
-        <v>7073807.172376178</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>

--- a/artfynd/A 29346-2023.xlsx
+++ b/artfynd/A 29346-2023.xlsx
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756140</v>
+        <v>111756162</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,21 +1404,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>453820.6239011836</v>
+        <v>453922.6243923472</v>
       </c>
       <c r="R8" t="n">
-        <v>7074037.242731699</v>
+        <v>7073958.370937477</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756147</v>
+        <v>111756158</v>
       </c>
       <c r="B9" t="n">
-        <v>89425</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1516,21 +1516,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5442</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>453989.3915585176</v>
+        <v>454002.8592168373</v>
       </c>
       <c r="R9" t="n">
-        <v>7073710.21875874</v>
+        <v>7073783.424762985</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756148</v>
+        <v>111756141</v>
       </c>
       <c r="B10" t="n">
-        <v>96266</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,25 +1624,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>223591</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>453747.0542679164</v>
+        <v>453610.1793069927</v>
       </c>
       <c r="R10" t="n">
-        <v>7073851.289854143</v>
+        <v>7074087.205471905</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756167</v>
+        <v>111756143</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1736,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454002.5104495964</v>
+        <v>453950.9091414157</v>
       </c>
       <c r="R11" t="n">
-        <v>7073638.391199326</v>
+        <v>7073591.829928016</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756155</v>
+        <v>111756160</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,21 +1852,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>453863.4009631127</v>
+        <v>453815.5156181521</v>
       </c>
       <c r="R12" t="n">
-        <v>7073965.428905412</v>
+        <v>7073870.182023689</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756170</v>
+        <v>111756140</v>
       </c>
       <c r="B14" t="n">
-        <v>96265</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2072,25 +2072,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219790</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>453738.5427278728</v>
+        <v>453820.6239011836</v>
       </c>
       <c r="R14" t="n">
-        <v>7073724.066700204</v>
+        <v>7074037.242731699</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2172,10 +2172,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756156</v>
+        <v>111756150</v>
       </c>
       <c r="B15" t="n">
-        <v>89423</v>
+        <v>95532</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2184,25 +2184,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>221945</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>453978.4965374623</v>
+        <v>453976.2702886119</v>
       </c>
       <c r="R15" t="n">
-        <v>7073812.964766338</v>
+        <v>7073812.112971266</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756154</v>
+        <v>111756151</v>
       </c>
       <c r="B16" t="n">
-        <v>96674</v>
+        <v>95532</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2300,21 +2300,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>219880</v>
+        <v>221945</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>453614.9183513908</v>
+        <v>453609.4901279925</v>
       </c>
       <c r="R16" t="n">
-        <v>7074108.35826167</v>
+        <v>7074130.545069677</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756163</v>
+        <v>111756155</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2412,21 +2412,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>453955.6479769219</v>
+        <v>453863.4009631127</v>
       </c>
       <c r="R17" t="n">
-        <v>7073945.9492877</v>
+        <v>7073965.428905412</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756141</v>
+        <v>111756154</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>96674</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2520,25 +2520,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>219880</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>453610.1793069927</v>
+        <v>453614.9183513908</v>
       </c>
       <c r="R18" t="n">
-        <v>7074087.205471905</v>
+        <v>7074108.35826167</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756161</v>
+        <v>111756147</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>89425</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,21 +2636,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>453723.2573215028</v>
+        <v>453989.3915585176</v>
       </c>
       <c r="R19" t="n">
-        <v>7074069.623294062</v>
+        <v>7073710.21875874</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756166</v>
+        <v>111756142</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2744,25 +2744,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>453981.6720900657</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R20" t="n">
-        <v>7073697.065866594</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756143</v>
+        <v>111756159</v>
       </c>
       <c r="B21" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2856,25 +2856,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>453950.9091414157</v>
+        <v>453621.4908246148</v>
       </c>
       <c r="R21" t="n">
-        <v>7073591.829928016</v>
+        <v>7073983.576241231</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756139</v>
+        <v>111756164</v>
       </c>
       <c r="B22" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2972,21 +2972,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>453692.6056797595</v>
+        <v>453971.0747186596</v>
       </c>
       <c r="R22" t="n">
-        <v>7074032.491935454</v>
+        <v>7073820.148138274</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756159</v>
+        <v>111756148</v>
       </c>
       <c r="B23" t="n">
-        <v>89423</v>
+        <v>96266</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3080,25 +3080,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>223591</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>453621.4908246148</v>
+        <v>453747.0542679164</v>
       </c>
       <c r="R23" t="n">
-        <v>7073983.576241231</v>
+        <v>7073851.289854143</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756150</v>
+        <v>111756161</v>
       </c>
       <c r="B24" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>453976.2702886119</v>
+        <v>453723.2573215028</v>
       </c>
       <c r="R24" t="n">
-        <v>7073812.112971266</v>
+        <v>7074069.623294062</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756172</v>
+        <v>111756153</v>
       </c>
       <c r="B25" t="n">
-        <v>85715</v>
+        <v>96674</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3304,25 +3304,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>510</v>
+        <v>219880</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>453938.5789576455</v>
+        <v>453707.5163784204</v>
       </c>
       <c r="R25" t="n">
-        <v>7073959.46382203</v>
+        <v>7073721.869806641</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756164</v>
+        <v>111756139</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3420,21 +3420,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3444,10 +3444,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>453971.0747186596</v>
+        <v>453692.6056797595</v>
       </c>
       <c r="R26" t="n">
-        <v>7073820.148138274</v>
+        <v>7074032.491935454</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756169</v>
+        <v>111756170</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>96265</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3528,25 +3528,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3556,10 +3556,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>453910.2023238647</v>
+        <v>453738.5427278728</v>
       </c>
       <c r="R27" t="n">
-        <v>7073654.334338664</v>
+        <v>7073724.066700204</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756160</v>
+        <v>111756165</v>
       </c>
       <c r="B28" t="n">
         <v>77515</v>
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>453815.5156181521</v>
+        <v>453984.2379404157</v>
       </c>
       <c r="R28" t="n">
-        <v>7073870.182023689</v>
+        <v>7073751.417626478</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756151</v>
+        <v>111756172</v>
       </c>
       <c r="B29" t="n">
-        <v>95532</v>
+        <v>85715</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3752,25 +3752,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221945</v>
+        <v>510</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>453609.4901279925</v>
+        <v>453938.5789576455</v>
       </c>
       <c r="R29" t="n">
-        <v>7074130.545069677</v>
+        <v>7073959.46382203</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756165</v>
+        <v>111756169</v>
       </c>
       <c r="B30" t="n">
         <v>77515</v>
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>453984.2379404157</v>
+        <v>453910.2023238647</v>
       </c>
       <c r="R30" t="n">
-        <v>7073751.417626478</v>
+        <v>7073654.334338664</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756157</v>
+        <v>111756167</v>
       </c>
       <c r="B31" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3980,21 +3980,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4004,10 +4004,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>453981.5111392652</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R31" t="n">
-        <v>7073807.172376178</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4076,10 +4076,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756153</v>
+        <v>111756166</v>
       </c>
       <c r="B32" t="n">
-        <v>96674</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4088,25 +4088,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>219880</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4116,10 +4116,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>453707.5163784204</v>
+        <v>453981.6720900657</v>
       </c>
       <c r="R32" t="n">
-        <v>7073721.869806641</v>
+        <v>7073697.065866594</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756162</v>
+        <v>111756157</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4204,21 +4204,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>453922.6243923472</v>
+        <v>453981.5111392652</v>
       </c>
       <c r="R33" t="n">
-        <v>7073958.370937477</v>
+        <v>7073807.172376178</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111756158</v>
+        <v>111756163</v>
       </c>
       <c r="B34" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4316,21 +4316,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>454002.8592168373</v>
+        <v>453955.6479769219</v>
       </c>
       <c r="R34" t="n">
-        <v>7073783.424762985</v>
+        <v>7073945.9492877</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111756142</v>
+        <v>111756156</v>
       </c>
       <c r="B35" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4424,25 +4424,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4452,10 +4452,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>454002.5104495964</v>
+        <v>453978.4965374623</v>
       </c>
       <c r="R35" t="n">
-        <v>7073638.391199326</v>
+        <v>7073812.964766338</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>

--- a/artfynd/A 29346-2023.xlsx
+++ b/artfynd/A 29346-2023.xlsx
@@ -2620,10 +2620,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756147</v>
+        <v>111756164</v>
       </c>
       <c r="B19" t="n">
-        <v>89425</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,21 +2636,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>453989.3915585176</v>
+        <v>453971.0747186596</v>
       </c>
       <c r="R19" t="n">
-        <v>7073710.21875874</v>
+        <v>7073820.148138274</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756142</v>
+        <v>111756147</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>89425</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2744,25 +2744,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>5442</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454002.5104495964</v>
+        <v>453989.3915585176</v>
       </c>
       <c r="R20" t="n">
-        <v>7073638.391199326</v>
+        <v>7073710.21875874</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756159</v>
+        <v>111756142</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2856,25 +2856,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>453621.4908246148</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R21" t="n">
-        <v>7073983.576241231</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756164</v>
+        <v>111756159</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2972,21 +2972,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>453971.0747186596</v>
+        <v>453621.4908246148</v>
       </c>
       <c r="R22" t="n">
-        <v>7073820.148138274</v>
+        <v>7073983.576241231</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>

--- a/artfynd/A 29346-2023.xlsx
+++ b/artfynd/A 29346-2023.xlsx
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756162</v>
+        <v>111756157</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,21 +1404,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>453922.6243923472</v>
+        <v>453981.5111392652</v>
       </c>
       <c r="R8" t="n">
-        <v>7073958.370937477</v>
+        <v>7073807.172376178</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756158</v>
+        <v>111756156</v>
       </c>
       <c r="B9" t="n">
         <v>89423</v>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454002.8592168373</v>
+        <v>453978.4965374623</v>
       </c>
       <c r="R9" t="n">
-        <v>7073783.424762985</v>
+        <v>7073812.964766338</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756141</v>
+        <v>111756148</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>96266</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,25 +1624,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>223591</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>453610.1793069927</v>
+        <v>453747.0542679164</v>
       </c>
       <c r="R10" t="n">
-        <v>7074087.205471905</v>
+        <v>7073851.289854143</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756143</v>
+        <v>111756150</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>95532</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,21 +1740,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>221945</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>453950.9091414157</v>
+        <v>453976.2702886119</v>
       </c>
       <c r="R11" t="n">
-        <v>7073591.829928016</v>
+        <v>7073812.112971266</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756160</v>
+        <v>111756165</v>
       </c>
       <c r="B12" t="n">
         <v>77515</v>
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>453815.5156181521</v>
+        <v>453984.2379404157</v>
       </c>
       <c r="R12" t="n">
-        <v>7073870.182023689</v>
+        <v>7073751.417626478</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756168</v>
+        <v>111756162</v>
       </c>
       <c r="B13" t="n">
         <v>77515</v>
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>453958.9423245317</v>
+        <v>453922.6243923472</v>
       </c>
       <c r="R13" t="n">
-        <v>7073596.134472342</v>
+        <v>7073958.370937477</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756140</v>
+        <v>111756172</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>85715</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2076,21 +2076,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>453820.6239011836</v>
+        <v>453938.5789576455</v>
       </c>
       <c r="R14" t="n">
-        <v>7074037.242731699</v>
+        <v>7073959.46382203</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2172,10 +2172,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756150</v>
+        <v>111756163</v>
       </c>
       <c r="B15" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2184,25 +2184,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>453976.2702886119</v>
+        <v>453955.6479769219</v>
       </c>
       <c r="R15" t="n">
-        <v>7073812.112971266</v>
+        <v>7073945.9492877</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756151</v>
+        <v>111756168</v>
       </c>
       <c r="B16" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2296,25 +2296,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>453609.4901279925</v>
+        <v>453958.9423245317</v>
       </c>
       <c r="R16" t="n">
-        <v>7074130.545069677</v>
+        <v>7073596.134472342</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756155</v>
+        <v>111756160</v>
       </c>
       <c r="B17" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2412,21 +2412,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>453863.4009631127</v>
+        <v>453815.5156181521</v>
       </c>
       <c r="R17" t="n">
-        <v>7073965.428905412</v>
+        <v>7073870.182023689</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756154</v>
+        <v>111756143</v>
       </c>
       <c r="B18" t="n">
-        <v>96674</v>
+        <v>90087</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2524,21 +2524,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>219880</v>
+        <v>3298</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>453614.9183513908</v>
+        <v>453950.9091414157</v>
       </c>
       <c r="R18" t="n">
-        <v>7074108.35826167</v>
+        <v>7073591.829928016</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756164</v>
+        <v>111756159</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,21 +2636,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>453971.0747186596</v>
+        <v>453621.4908246148</v>
       </c>
       <c r="R19" t="n">
-        <v>7073820.148138274</v>
+        <v>7073983.576241231</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756147</v>
+        <v>111756158</v>
       </c>
       <c r="B20" t="n">
-        <v>89425</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2748,21 +2748,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5442</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>453989.3915585176</v>
+        <v>454002.8592168373</v>
       </c>
       <c r="R20" t="n">
-        <v>7073710.21875874</v>
+        <v>7073783.424762985</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756142</v>
+        <v>111756154</v>
       </c>
       <c r="B21" t="n">
-        <v>90087</v>
+        <v>96674</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2860,21 +2860,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>219880</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>454002.5104495964</v>
+        <v>453614.9183513908</v>
       </c>
       <c r="R21" t="n">
-        <v>7073638.391199326</v>
+        <v>7074108.35826167</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756159</v>
+        <v>111756139</v>
       </c>
       <c r="B22" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2972,21 +2972,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>453621.4908246148</v>
+        <v>453692.6056797595</v>
       </c>
       <c r="R22" t="n">
-        <v>7073983.576241231</v>
+        <v>7074032.491935454</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756148</v>
+        <v>111756155</v>
       </c>
       <c r="B23" t="n">
-        <v>96266</v>
+        <v>89423</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3080,25 +3080,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>223591</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>453747.0542679164</v>
+        <v>453863.4009631127</v>
       </c>
       <c r="R23" t="n">
-        <v>7073851.289854143</v>
+        <v>7073965.428905412</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756161</v>
+        <v>111756170</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>96265</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>453723.2573215028</v>
+        <v>453738.5427278728</v>
       </c>
       <c r="R24" t="n">
-        <v>7074069.623294062</v>
+        <v>7073724.066700204</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756153</v>
+        <v>111756169</v>
       </c>
       <c r="B25" t="n">
-        <v>96674</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3304,25 +3304,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>219880</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>453707.5163784204</v>
+        <v>453910.2023238647</v>
       </c>
       <c r="R25" t="n">
-        <v>7073721.869806641</v>
+        <v>7073654.334338664</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756139</v>
+        <v>111756147</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3420,21 +3420,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3444,10 +3444,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>453692.6056797595</v>
+        <v>453989.3915585176</v>
       </c>
       <c r="R26" t="n">
-        <v>7074032.491935454</v>
+        <v>7073710.21875874</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756170</v>
+        <v>111756141</v>
       </c>
       <c r="B27" t="n">
-        <v>96265</v>
+        <v>89405</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3528,25 +3528,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>219790</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3556,10 +3556,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>453738.5427278728</v>
+        <v>453610.1793069927</v>
       </c>
       <c r="R27" t="n">
-        <v>7073724.066700204</v>
+        <v>7074087.205471905</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756165</v>
+        <v>111756167</v>
       </c>
       <c r="B28" t="n">
         <v>77515</v>
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>453984.2379404157</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R28" t="n">
-        <v>7073751.417626478</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756172</v>
+        <v>111756166</v>
       </c>
       <c r="B29" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3756,21 +3756,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>453938.5789576455</v>
+        <v>453981.6720900657</v>
       </c>
       <c r="R29" t="n">
-        <v>7073959.46382203</v>
+        <v>7073697.065866594</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756169</v>
+        <v>111756151</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>95532</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3864,25 +3864,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>453910.2023238647</v>
+        <v>453609.4901279925</v>
       </c>
       <c r="R30" t="n">
-        <v>7073654.334338664</v>
+        <v>7074130.545069677</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756167</v>
+        <v>111756140</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3980,21 +3980,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4004,10 +4004,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454002.5104495964</v>
+        <v>453820.6239011836</v>
       </c>
       <c r="R31" t="n">
-        <v>7073638.391199326</v>
+        <v>7074037.242731699</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756166</v>
+        <v>111756161</v>
       </c>
       <c r="B32" t="n">
         <v>77515</v>
@@ -4116,10 +4116,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>453981.6720900657</v>
+        <v>453723.2573215028</v>
       </c>
       <c r="R32" t="n">
-        <v>7073697.065866594</v>
+        <v>7074069.623294062</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756157</v>
+        <v>111756142</v>
       </c>
       <c r="B33" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4200,25 +4200,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4228,10 +4228,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>453981.5111392652</v>
+        <v>454002.5104495964</v>
       </c>
       <c r="R33" t="n">
-        <v>7073807.172376178</v>
+        <v>7073638.391199326</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111756163</v>
+        <v>111756153</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>96674</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4312,25 +4312,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>219880</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>453955.6479769219</v>
+        <v>453707.5163784204</v>
       </c>
       <c r="R34" t="n">
-        <v>7073945.9492877</v>
+        <v>7073721.869806641</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111756156</v>
+        <v>111756164</v>
       </c>
       <c r="B35" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4428,21 +4428,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4452,10 +4452,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>453978.4965374623</v>
+        <v>453971.0747186596</v>
       </c>
       <c r="R35" t="n">
-        <v>7073812.964766338</v>
+        <v>7073820.148138274</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>

--- a/artfynd/A 29346-2023.xlsx
+++ b/artfynd/A 29346-2023.xlsx
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756157</v>
+        <v>111756165</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,21 +1404,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>453981.5111392652</v>
+        <v>453984</v>
       </c>
       <c r="R8" t="n">
-        <v>7073807.172376178</v>
+        <v>7073751</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1461,19 +1461,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1500,10 +1490,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756156</v>
+        <v>111756143</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,25 +1502,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1540,10 +1530,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>453978.4965374623</v>
+        <v>453951</v>
       </c>
       <c r="R9" t="n">
-        <v>7073812.964766338</v>
+        <v>7073592</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1573,19 +1563,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1612,10 +1592,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756148</v>
+        <v>111756158</v>
       </c>
       <c r="B10" t="n">
-        <v>96266</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,25 +1604,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>223591</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1632,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>453747.0542679164</v>
+        <v>454003</v>
       </c>
       <c r="R10" t="n">
-        <v>7073851.289854143</v>
+        <v>7073783</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1685,19 +1665,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1724,10 +1694,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756150</v>
+        <v>111756156</v>
       </c>
       <c r="B11" t="n">
-        <v>95532</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1706,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221945</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1734,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>453976.2702886119</v>
+        <v>453978</v>
       </c>
       <c r="R11" t="n">
-        <v>7073812.112971266</v>
+        <v>7073813</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1797,19 +1767,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1836,10 +1796,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756165</v>
+        <v>111756147</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>89425</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,21 +1812,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1876,10 +1836,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>453984.2379404157</v>
+        <v>453989</v>
       </c>
       <c r="R12" t="n">
-        <v>7073751.417626478</v>
+        <v>7073710</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1909,19 +1869,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1948,7 +1898,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756162</v>
+        <v>111756164</v>
       </c>
       <c r="B13" t="n">
         <v>77515</v>
@@ -1988,10 +1938,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>453922.6243923472</v>
+        <v>453971</v>
       </c>
       <c r="R13" t="n">
-        <v>7073958.370937477</v>
+        <v>7073820</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2021,19 +1971,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2060,10 +2000,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756172</v>
+        <v>111756163</v>
       </c>
       <c r="B14" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2076,21 +2016,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2100,10 +2040,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>453938.5789576455</v>
+        <v>453956</v>
       </c>
       <c r="R14" t="n">
-        <v>7073959.46382203</v>
+        <v>7073946</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2133,19 +2073,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2172,7 +2102,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756163</v>
+        <v>111756169</v>
       </c>
       <c r="B15" t="n">
         <v>77515</v>
@@ -2212,10 +2142,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>453955.6479769219</v>
+        <v>453910</v>
       </c>
       <c r="R15" t="n">
-        <v>7073945.9492877</v>
+        <v>7073654</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2245,19 +2175,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2284,10 +2204,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756168</v>
+        <v>111756142</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2296,25 +2216,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2324,10 +2244,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>453958.9423245317</v>
+        <v>454003</v>
       </c>
       <c r="R16" t="n">
-        <v>7073596.134472342</v>
+        <v>7073638</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2357,19 +2277,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2396,7 +2306,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756160</v>
+        <v>111756166</v>
       </c>
       <c r="B17" t="n">
         <v>77515</v>
@@ -2436,10 +2346,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>453815.5156181521</v>
+        <v>453982</v>
       </c>
       <c r="R17" t="n">
-        <v>7073870.182023689</v>
+        <v>7073697</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2469,19 +2379,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2508,10 +2408,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756143</v>
+        <v>111756139</v>
       </c>
       <c r="B18" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2520,25 +2420,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2548,10 +2448,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>453950.9091414157</v>
+        <v>453693</v>
       </c>
       <c r="R18" t="n">
-        <v>7073591.829928016</v>
+        <v>7074032</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2581,19 +2481,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2620,10 +2510,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756159</v>
+        <v>111756148</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>96266</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2632,25 +2522,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>223591</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2660,10 +2550,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>453621.4908246148</v>
+        <v>453747</v>
       </c>
       <c r="R19" t="n">
-        <v>7073983.576241231</v>
+        <v>7073851</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2693,19 +2583,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2732,7 +2612,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756158</v>
+        <v>111756159</v>
       </c>
       <c r="B20" t="n">
         <v>89423</v>
@@ -2772,10 +2652,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454002.8592168373</v>
+        <v>453621</v>
       </c>
       <c r="R20" t="n">
-        <v>7073783.424762985</v>
+        <v>7073984</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2805,19 +2685,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2844,10 +2714,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756154</v>
+        <v>111756141</v>
       </c>
       <c r="B21" t="n">
-        <v>96674</v>
+        <v>89405</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2856,25 +2726,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>219880</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2884,10 +2754,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>453614.9183513908</v>
+        <v>453610</v>
       </c>
       <c r="R21" t="n">
-        <v>7074108.35826167</v>
+        <v>7074087</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2917,19 +2787,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2956,10 +2816,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756139</v>
+        <v>111756168</v>
       </c>
       <c r="B22" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2972,21 +2832,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2856,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>453692.6056797595</v>
+        <v>453959</v>
       </c>
       <c r="R22" t="n">
-        <v>7074032.491935454</v>
+        <v>7073596</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3029,19 +2889,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3068,10 +2918,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756155</v>
+        <v>111756162</v>
       </c>
       <c r="B23" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3084,21 +2934,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3108,10 +2958,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>453863.4009631127</v>
+        <v>453923</v>
       </c>
       <c r="R23" t="n">
-        <v>7073965.428905412</v>
+        <v>7073958</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3141,19 +2991,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3180,10 +3020,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756170</v>
+        <v>111756150</v>
       </c>
       <c r="B24" t="n">
-        <v>96265</v>
+        <v>95532</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3196,21 +3036,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>219790</v>
+        <v>221945</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3220,10 +3060,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>453738.5427278728</v>
+        <v>453976</v>
       </c>
       <c r="R24" t="n">
-        <v>7073724.066700204</v>
+        <v>7073812</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3253,19 +3093,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3292,7 +3122,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756169</v>
+        <v>111756161</v>
       </c>
       <c r="B25" t="n">
         <v>77515</v>
@@ -3332,10 +3162,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>453910.2023238647</v>
+        <v>453723</v>
       </c>
       <c r="R25" t="n">
-        <v>7073654.334338664</v>
+        <v>7074070</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3365,19 +3195,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3404,10 +3224,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756147</v>
+        <v>111756151</v>
       </c>
       <c r="B26" t="n">
-        <v>89425</v>
+        <v>95532</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3416,25 +3236,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5442</v>
+        <v>221945</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3444,10 +3264,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>453989.3915585176</v>
+        <v>453609</v>
       </c>
       <c r="R26" t="n">
-        <v>7073710.21875874</v>
+        <v>7074131</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3477,19 +3297,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3516,10 +3326,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756141</v>
+        <v>111756154</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>96674</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3528,25 +3338,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>219880</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3556,10 +3366,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>453610.1793069927</v>
+        <v>453615</v>
       </c>
       <c r="R27" t="n">
-        <v>7074087.205471905</v>
+        <v>7074108</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3589,19 +3399,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3628,10 +3428,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756167</v>
+        <v>111756153</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>96674</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3640,25 +3440,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>219880</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3668,10 +3468,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>454002.5104495964</v>
+        <v>453708</v>
       </c>
       <c r="R28" t="n">
-        <v>7073638.391199326</v>
+        <v>7073722</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3701,19 +3501,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3740,7 +3530,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756166</v>
+        <v>111756160</v>
       </c>
       <c r="B29" t="n">
         <v>77515</v>
@@ -3780,10 +3570,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>453981.6720900657</v>
+        <v>453816</v>
       </c>
       <c r="R29" t="n">
-        <v>7073697.065866594</v>
+        <v>7073870</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3813,19 +3603,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3852,10 +3632,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756151</v>
+        <v>111756167</v>
       </c>
       <c r="B30" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3864,25 +3644,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3892,10 +3672,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>453609.4901279925</v>
+        <v>454003</v>
       </c>
       <c r="R30" t="n">
-        <v>7074130.545069677</v>
+        <v>7073638</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3925,19 +3705,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3964,10 +3734,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756140</v>
+        <v>111756172</v>
       </c>
       <c r="B31" t="n">
-        <v>89405</v>
+        <v>85715</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3980,21 +3750,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4004,10 +3774,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>453820.6239011836</v>
+        <v>453939</v>
       </c>
       <c r="R31" t="n">
-        <v>7074037.242731699</v>
+        <v>7073959</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4037,19 +3807,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4076,10 +3836,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756161</v>
+        <v>111756170</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>96265</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4088,25 +3848,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4116,10 +3876,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>453723.2573215028</v>
+        <v>453739</v>
       </c>
       <c r="R32" t="n">
-        <v>7074069.623294062</v>
+        <v>7073724</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4149,19 +3909,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4188,10 +3938,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756142</v>
+        <v>111756155</v>
       </c>
       <c r="B33" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4200,25 +3950,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4228,10 +3978,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>454002.5104495964</v>
+        <v>453863</v>
       </c>
       <c r="R33" t="n">
-        <v>7073638.391199326</v>
+        <v>7073965</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4261,19 +4011,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4300,10 +4040,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111756153</v>
+        <v>111756140</v>
       </c>
       <c r="B34" t="n">
-        <v>96674</v>
+        <v>89405</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4312,25 +4052,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>219880</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4340,10 +4080,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>453707.5163784204</v>
+        <v>453821</v>
       </c>
       <c r="R34" t="n">
-        <v>7073721.869806641</v>
+        <v>7074037</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4373,19 +4113,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4412,10 +4142,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111756164</v>
+        <v>111756157</v>
       </c>
       <c r="B35" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4428,21 +4158,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4452,10 +4182,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>453971.0747186596</v>
+        <v>453982</v>
       </c>
       <c r="R35" t="n">
-        <v>7073820.148138274</v>
+        <v>7073807</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4485,19 +4215,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 29346-2023.xlsx
+++ b/artfynd/A 29346-2023.xlsx
@@ -1388,7 +1388,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756165</v>
+        <v>111756162</v>
       </c>
       <c r="B8" t="n">
         <v>77515</v>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>453984</v>
+        <v>453923</v>
       </c>
       <c r="R8" t="n">
-        <v>7073751</v>
+        <v>7073958</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756143</v>
+        <v>111756156</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1502,25 +1502,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1530,10 +1530,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>453951</v>
+        <v>453978</v>
       </c>
       <c r="R9" t="n">
-        <v>7073592</v>
+        <v>7073813</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756158</v>
+        <v>111756172</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>85715</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1608,21 +1608,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>510</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1632,10 +1632,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454003</v>
+        <v>453939</v>
       </c>
       <c r="R10" t="n">
-        <v>7073783</v>
+        <v>7073959</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756156</v>
+        <v>111756167</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1710,21 +1710,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>453978</v>
+        <v>454003</v>
       </c>
       <c r="R11" t="n">
-        <v>7073813</v>
+        <v>7073638</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756147</v>
+        <v>111756139</v>
       </c>
       <c r="B12" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,21 +1812,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1836,10 +1836,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>453989</v>
+        <v>453693</v>
       </c>
       <c r="R12" t="n">
-        <v>7073710</v>
+        <v>7074032</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756164</v>
+        <v>111756141</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1914,21 +1914,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1938,10 +1938,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>453971</v>
+        <v>453610</v>
       </c>
       <c r="R13" t="n">
-        <v>7073820</v>
+        <v>7074087</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2000,10 +2000,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756163</v>
+        <v>111756155</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2016,21 +2016,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>453956</v>
+        <v>453863</v>
       </c>
       <c r="R14" t="n">
-        <v>7073946</v>
+        <v>7073965</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756169</v>
+        <v>111756158</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2118,21 +2118,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2142,10 +2142,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>453910</v>
+        <v>454003</v>
       </c>
       <c r="R15" t="n">
-        <v>7073654</v>
+        <v>7073783</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2204,10 +2204,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756142</v>
+        <v>111756153</v>
       </c>
       <c r="B16" t="n">
-        <v>90087</v>
+        <v>96674</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2220,21 +2220,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>219880</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454003</v>
+        <v>453708</v>
       </c>
       <c r="R16" t="n">
-        <v>7073638</v>
+        <v>7073722</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756139</v>
+        <v>111756170</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>96265</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2420,25 +2420,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>219790</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2448,10 +2448,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>453693</v>
+        <v>453739</v>
       </c>
       <c r="R18" t="n">
-        <v>7074032</v>
+        <v>7073724</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756148</v>
+        <v>111756150</v>
       </c>
       <c r="B19" t="n">
-        <v>96266</v>
+        <v>95532</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2526,21 +2526,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>223591</v>
+        <v>221945</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2550,10 +2550,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>453747</v>
+        <v>453976</v>
       </c>
       <c r="R19" t="n">
-        <v>7073851</v>
+        <v>7073812</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756159</v>
+        <v>111756140</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2628,21 +2628,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>453621</v>
+        <v>453821</v>
       </c>
       <c r="R20" t="n">
-        <v>7073984</v>
+        <v>7074037</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756141</v>
+        <v>111756161</v>
       </c>
       <c r="B21" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2730,21 +2730,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2754,10 +2754,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>453610</v>
+        <v>453723</v>
       </c>
       <c r="R21" t="n">
-        <v>7074087</v>
+        <v>7074070</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2816,10 +2816,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756168</v>
+        <v>111756148</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>96266</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2828,25 +2828,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>223591</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2856,10 +2856,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>453959</v>
+        <v>453747</v>
       </c>
       <c r="R22" t="n">
-        <v>7073596</v>
+        <v>7073851</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756162</v>
+        <v>111756151</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>95532</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2930,25 +2930,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2958,10 +2958,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>453923</v>
+        <v>453609</v>
       </c>
       <c r="R23" t="n">
-        <v>7073958</v>
+        <v>7074131</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3020,10 +3020,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756150</v>
+        <v>111756142</v>
       </c>
       <c r="B24" t="n">
-        <v>95532</v>
+        <v>90087</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3036,21 +3036,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221945</v>
+        <v>3298</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3060,10 +3060,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>453976</v>
+        <v>454003</v>
       </c>
       <c r="R24" t="n">
-        <v>7073812</v>
+        <v>7073638</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756161</v>
+        <v>111756143</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3134,25 +3134,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>453723</v>
+        <v>453951</v>
       </c>
       <c r="R25" t="n">
-        <v>7074070</v>
+        <v>7073592</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756151</v>
+        <v>111756157</v>
       </c>
       <c r="B26" t="n">
-        <v>95532</v>
+        <v>89423</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3236,25 +3236,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221945</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3264,10 +3264,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>453609</v>
+        <v>453982</v>
       </c>
       <c r="R26" t="n">
-        <v>7074131</v>
+        <v>7073807</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756153</v>
+        <v>111756169</v>
       </c>
       <c r="B28" t="n">
-        <v>96674</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3440,25 +3440,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>219880</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3468,10 +3468,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>453708</v>
+        <v>453910</v>
       </c>
       <c r="R28" t="n">
-        <v>7073722</v>
+        <v>7073654</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3530,10 +3530,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756160</v>
+        <v>111756159</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3546,21 +3546,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3570,10 +3570,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>453816</v>
+        <v>453621</v>
       </c>
       <c r="R29" t="n">
-        <v>7073870</v>
+        <v>7073984</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756167</v>
+        <v>111756147</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>89425</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3648,21 +3648,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3672,10 +3672,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>454003</v>
+        <v>453989</v>
       </c>
       <c r="R30" t="n">
-        <v>7073638</v>
+        <v>7073710</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3734,10 +3734,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756172</v>
+        <v>111756168</v>
       </c>
       <c r="B31" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3750,21 +3750,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3774,10 +3774,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>453939</v>
+        <v>453959</v>
       </c>
       <c r="R31" t="n">
-        <v>7073959</v>
+        <v>7073596</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756170</v>
+        <v>111756160</v>
       </c>
       <c r="B32" t="n">
-        <v>96265</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3848,25 +3848,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>453739</v>
+        <v>453816</v>
       </c>
       <c r="R32" t="n">
-        <v>7073724</v>
+        <v>7073870</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3938,10 +3938,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756155</v>
+        <v>111756165</v>
       </c>
       <c r="B33" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3954,21 +3954,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>453863</v>
+        <v>453984</v>
       </c>
       <c r="R33" t="n">
-        <v>7073965</v>
+        <v>7073751</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4040,10 +4040,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111756140</v>
+        <v>111756164</v>
       </c>
       <c r="B34" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4056,21 +4056,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4080,10 +4080,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>453821</v>
+        <v>453971</v>
       </c>
       <c r="R34" t="n">
-        <v>7074037</v>
+        <v>7073820</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111756157</v>
+        <v>111756163</v>
       </c>
       <c r="B35" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4158,21 +4158,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>453982</v>
+        <v>453956</v>
       </c>
       <c r="R35" t="n">
-        <v>7073807</v>
+        <v>7073946</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
